--- a/Python/Datos.xlsx
+++ b/Python/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Examen.JonathanYataco\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C267BF12-EC67-47B2-AAE2-C4987343930E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856FAE4-6943-416B-959D-20F6143B01CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,10 @@
     <t>Banco</t>
   </si>
   <si>
-    <t>MiraFlores</t>
-  </si>
-  <si>
     <t>Lima Sur</t>
+  </si>
+  <si>
+    <t>Miraflores</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>15</v>
@@ -1109,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>15</v>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>15</v>
